--- a/Surgery_Improt_File_Format.xlsx
+++ b/Surgery_Improt_File_Format.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="41">
   <si>
     <t>Băng Alginate Calcium dạng gạc 10cm x 10cm</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Patient Name</t>
   </si>
   <si>
-    <t>Patient Gender</t>
-  </si>
-  <si>
     <t>Patient DOB</t>
   </si>
   <si>
@@ -84,12 +81,6 @@
     <t>Surgeon Name</t>
   </si>
   <si>
-    <t>Surgery Assigned Date</t>
-  </si>
-  <si>
-    <t>Surgery Assigned Time</t>
-  </si>
-  <si>
     <t>Surgery Weight</t>
   </si>
   <si>
@@ -121,6 +112,33 @@
   </si>
   <si>
     <t>Nguyễn Van Thanh F</t>
+  </si>
+  <si>
+    <t>Surgery Code</t>
+  </si>
+  <si>
+    <t>MHA587643</t>
+  </si>
+  <si>
+    <t>MHB587643</t>
+  </si>
+  <si>
+    <t>MHC587643</t>
+  </si>
+  <si>
+    <t>MHD587643</t>
+  </si>
+  <si>
+    <t>MHF587643</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Expected Time</t>
+  </si>
+  <si>
+    <t>Expected Date</t>
   </si>
 </sst>
 </file>
@@ -470,63 +488,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
       <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
       <c r="J1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -550,15 +572,18 @@
         <v>3</v>
       </c>
       <c r="J2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="K2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -582,15 +607,18 @@
         <v>3</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="K3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -614,15 +642,18 @@
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="K4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -646,15 +677,18 @@
         <v>3</v>
       </c>
       <c r="J5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>34</v>
-      </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -678,7 +712,10 @@
         <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="K6" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -689,100 +726,120 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>5</v>
       </c>
     </row>
